--- a/database_excel_files/Attendee.xlsx
+++ b/database_excel_files/Attendee.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD8AE5-13C6-43E1-A360-D620ACDEE3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B3DD8AE5-13C6-43E1-A360-D620ACDEE3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{393797FB-0F87-4DF4-BB0A-2CB83D506614}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10890" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-990" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -41,39 +41,11 @@
   <si>
     <t>isCampCommitee</t>
   </si>
-  <si>
-    <t>TEST123</t>
-  </si>
-  <si>
-    <t>test@example.com</t>
-  </si>
-  <si>
-    <t>Test User</t>
-  </si>
-  <si>
-    <t>testpassword</t>
-  </si>
-  <si>
-    <t>updated@example.com</t>
-  </si>
-  <si>
-    <t>Updated User</t>
-  </si>
-  <si>
-    <t>newpassword</t>
-  </si>
-  <si>
-    <t>TasdfT123</t>
-  </si>
-  <si>
-    <t>Giga User</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,6 +92,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,54 +361,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="64.5703125"/>
-    <col min="2" max="2" customWidth="true" width="71.5703125"/>
-    <col min="3" max="3" customWidth="true" width="23.42578125"/>
-    <col min="4" max="4" customWidth="true" width="22.42578125"/>
-    <col min="5" max="5" customWidth="true" width="21.85546875"/>
-    <col min="6" max="6" customWidth="true" width="51.42578125"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="71.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="b" s="0">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database_excel_files/Attendee.xlsx
+++ b/database_excel_files/Attendee.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -40,12 +40,37 @@
   </si>
   <si>
     <t>isCampCommitee</t>
+  </si>
+  <si>
+    <t>A123456</t>
+  </si>
+  <si>
+    <t>john.doe@email.com</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>B789012</t>
+  </si>
+  <si>
+    <t>jane.smith@email.com</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>securePass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -369,29 +394,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="71.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="64.5703125"/>
+    <col min="2" max="2" customWidth="true" width="71.5703125"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125"/>
+    <col min="4" max="4" customWidth="true" width="22.42578125"/>
+    <col min="5" max="5" customWidth="true" width="21.85546875"/>
+    <col min="6" max="6" customWidth="true" width="51.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E3" t="b" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
